--- a/reult.xlsx
+++ b/reult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuo/kaggle/playground-series-s5e4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87460441-EB56-0C4A-A088-872B703EE279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB723EC-F51B-3F4C-BB7C-37F814D995A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="16540" windowWidth="22860" windowHeight="9900" xr2:uid="{1775CA46-0882-9442-AAB2-5AAEFBDB36D7}"/>
+    <workbookView xWindow="480" yWindow="4340" windowWidth="22860" windowHeight="9900" xr2:uid="{1775CA46-0882-9442-AAB2-5AAEFBDB36D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>xgboost</t>
     <phoneticPr fontId="1"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>model_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットエンコーディング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502871B3-163B-5E48-BBC2-0D0B4096D23D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -661,6 +665,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="1">
         <v>166.20808099999999</v>
       </c>
@@ -676,168 +683,192 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
+      <c r="G7" s="1">
+        <v>170.68066300000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.5148390000000003</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.76803999999999994</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="1">
+        <v>165.82708500000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.3317739999999993</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.77463899999999997</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="1">
+    <row r="11" spans="1:9">
+      <c r="B11" s="1">
         <v>169.15313699999999</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>9.4592759999999991</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>0.77011799999999997</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>13.04996</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>166.53841600000001</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>9.3435839999999999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>0.77367200000000003</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>13.011620000000001</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="1">
-        <v>168.04538400000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9.4255610000000001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.77162399999999998</v>
-      </c>
-      <c r="E15" s="1">
-        <v>13.247299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
+        <v>168.04538400000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.4255610000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.77162399999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.247299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="1">
         <v>168.05734100000001</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>9.4297590000000007</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>0.77160799999999996</v>
-      </c>
-      <c r="E16" s="1">
-        <v>13.24845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>167.99801099999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>9.4274149999999999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.77168800000000004</v>
       </c>
       <c r="E17" s="1">
         <v>13.24845</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>167.99801099999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.4274149999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.77168800000000004</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13.24845</v>
+      </c>
+      <c r="F18" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="1">
+    <row r="21" spans="1:6">
+      <c r="B21" s="1">
         <v>162.73041699999999</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>9.2086050000000004</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>0.77884699999999996</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>12.86102</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>162.31237200000001</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>9.2195689999999999</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>0.77941499999999997</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>12.83151</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
     </row>

--- a/reult.xlsx
+++ b/reult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuo/kaggle/playground-series-s5e4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB723EC-F51B-3F4C-BB7C-37F814D995A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34833C-7E61-7747-9A10-EAB3C5FB2D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="4340" windowWidth="22860" windowHeight="9900" xr2:uid="{1775CA46-0882-9442-AAB2-5AAEFBDB36D7}"/>
+    <workbookView xWindow="0" yWindow="9540" windowWidth="12660" windowHeight="13320" xr2:uid="{1775CA46-0882-9442-AAB2-5AAEFBDB36D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>xgboost</t>
     <phoneticPr fontId="1"/>
@@ -132,6 +132,68 @@
   </si>
   <si>
     <t>ターゲットエンコーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one-hotとターゲット(スケーリングなし)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上+ロバスト</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lgb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moidel_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ont,label</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lgbもでるの追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k近傍法（KNN）</t>
+  </si>
+  <si>
+    <t>ニューラルネットワーク（MLPRegressorやPyTorch/Keras）</t>
+  </si>
+  <si>
+    <t>線形モデル（Ridge, Lassoなど）</t>
+  </si>
+  <si>
+    <t>ont-hot target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ont-hot target label 特徴量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bestからテストの割合を上げた</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ワリアイヲ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">アゲタ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -139,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +229,15 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +269,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502871B3-163B-5E48-BBC2-0D0B4096D23D}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -551,15 +625,9 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1">
-        <v>0.40759400000000001</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0.48597800000000002</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1.325E-2</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
@@ -585,15 +653,9 @@
       <c r="E3" s="2">
         <v>12.85819</v>
       </c>
-      <c r="G3" s="1">
-        <v>170.85318100000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>9.5153180000000006</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.76780800000000005</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -608,15 +670,9 @@
       <c r="D4">
         <v>0.77082300000000004</v>
       </c>
-      <c r="G4" s="1">
-        <v>170.642999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9.5137119999999999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.76809400000000005</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -634,15 +690,9 @@
       <c r="E5" s="2">
         <v>12.85819</v>
       </c>
-      <c r="G5" s="1">
-        <v>163.81135599999999</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9.2717539999999996</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.77737800000000001</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
@@ -683,17 +733,14 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
-        <v>170.68066300000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>9.5148390000000003</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.76803999999999994</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="1">
         <v>165.82708500000001</v>
       </c>
@@ -709,125 +756,212 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>165.846957</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.3324449999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.77461199999999997</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1">
+        <v>170.544364</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9.5107689999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.76822800000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
+      <c r="B10" s="1">
+        <v>163.69187600000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.2599339999999994</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.77754000000000001</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1">
+        <v>170.812364</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.5157579999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.76786399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" s="1">
-        <v>169.15313699999999</v>
+        <v>165.234297</v>
       </c>
       <c r="C11" s="1">
-        <v>9.4592759999999991</v>
+        <v>9.2489500000000007</v>
       </c>
       <c r="D11" s="1">
-        <v>0.77011799999999997</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13.04996</v>
+        <v>0.77544400000000002</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1">
+        <v>170.52392699999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.5106699999999993</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.76825600000000005</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>166.53841600000001</v>
+        <v>163.969078</v>
       </c>
       <c r="C12" s="1">
-        <v>9.3435839999999999</v>
+        <v>9.2515490000000007</v>
       </c>
       <c r="D12" s="1">
-        <v>0.77367200000000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>13.011620000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
+        <v>0.77716399999999997</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12.867699999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>170.62374800000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.5149969999999993</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.76812000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>163.11813699999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.2435980000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.77823699999999996</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1">
+        <v>170.73531199999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9.5121199999999995</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.76788100000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="A14">
+        <v>0.18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>164.11357599999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.2399629999999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.77710999999999997</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1">
+        <v>170.74642499999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9.5183839999999993</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.76810199999999995</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15">
+        <v>0.3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>164.40525</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.2617419999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.77643700000000004</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12.88701</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>168.04538400000001</v>
+        <v>163.40098900000001</v>
       </c>
       <c r="C16" s="1">
-        <v>9.4255610000000001</v>
+        <v>9.2420259999999992</v>
       </c>
       <c r="D16" s="1">
-        <v>0.77162399999999998</v>
-      </c>
-      <c r="E16" s="1">
-        <v>13.247299999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="1">
-        <v>168.05734100000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>9.4297590000000007</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.77160799999999996</v>
-      </c>
-      <c r="E17" s="1">
-        <v>13.24845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <v>167.99801099999999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>9.4274149999999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.77168800000000004</v>
-      </c>
-      <c r="E18" s="1">
-        <v>13.24845</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.777702</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12.864789999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>170.87525099999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9.5161809999999996</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.76753300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -838,38 +972,292 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9">
       <c r="B21" s="1">
+        <v>169.15313699999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.4592759999999991</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.77011799999999997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13.04996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>166.53841600000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.3435839999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.77367200000000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13.011620000000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="1">
+        <v>168.04538400000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.4255610000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.77162399999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13.247299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="1">
+        <v>168.05734100000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.4297590000000007</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.77160799999999996</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13.24845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>167.99801099999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.4274149999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.77168800000000004</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13.24845</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="1">
+        <v>165.71387300000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9.3446529999999992</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.77479200000000004</v>
+      </c>
+      <c r="E33" s="1">
+        <v>12.9693</v>
+      </c>
+      <c r="G33" s="1">
+        <v>170.722464</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9.5136330000000005</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.76798599999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>165.531319</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9.3308199999999992</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.77504099999999998</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="1">
+        <v>170.71705499999999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9.5148700000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.76799300000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1">
+        <v>169.001137</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.4676229999999997</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.77032500000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="1">
         <v>162.73041699999999</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C42" s="1">
         <v>9.2086050000000004</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D42" s="1">
         <v>0.77884699999999996</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E42" s="1">
         <v>12.86102</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B43" s="1">
         <v>162.31237200000001</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C43" s="1">
         <v>9.2195689999999999</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D43" s="1">
         <v>0.77941499999999997</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E43" s="1">
         <v>12.83151</v>
       </c>
-      <c r="F22" t="s">
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="1">
+        <v>162.25422900000001</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9.2112060000000007</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.77949400000000002</v>
+      </c>
+      <c r="E44" s="1">
+        <v>12.83048</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1">
+        <v>162.25422900000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9.2112060000000007</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.77949400000000002</v>
+      </c>
+      <c r="J44" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1">
+        <v>162.02421699999999</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9.1917200000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.77980700000000003</v>
+      </c>
+      <c r="E45" s="1">
+        <v>12.82124</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
